--- a/OFFERS-79/es/Лендинг Fortuflex ES .xlsx
+++ b/OFFERS-79/es/Лендинг Fortuflex ES .xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
-    <t xml:space="preserve">Fortuflex №1 при болях в суставах 
+    <t xml:space="preserve">Fortuflex
 </t>
   </si>
   <si>
@@ -47,13 +47,13 @@
     <t>Precio normal</t>
   </si>
   <si>
-    <t>98€</t>
+    <t>78€</t>
   </si>
   <si>
     <t>Precio con descuento</t>
   </si>
   <si>
-    <t>49€</t>
+    <t>39€</t>
   </si>
   <si>
     <t>Encargar</t>
@@ -122,7 +122,7 @@
     <t>Estudio independiente de la crema Fortuflex</t>
   </si>
   <si>
-    <t>Organización Mundial contra las Enfermedades de las Articulaciones,</t>
+    <t>Organización Mundial de la Salud,</t>
   </si>
   <si>
     <t>en 2019, realizó una serie de pruebas clínicas de la crema Fortuflex.</t>
@@ -305,7 +305,7 @@
     <t>Pague el pedido al recibir</t>
   </si>
   <si>
-    <t>GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Spain</t>
+    <t>HEALTH-E LIFE INC., Calle Andrés de Urdaneta, 7, 28045 Madrid, Spain</t>
   </si>
   <si>
     <t>Privacy policy</t>
@@ -753,12 +753,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -981,6 +983,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="123.44"/>
+  </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1158,7 +1163,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
     </row>
